--- a/medicine/Psychotrope/Sagres_(bière)/Sagres_(bière).xlsx
+++ b/medicine/Psychotrope/Sagres_(bière)/Sagres_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sagres_(bi%C3%A8re)</t>
+          <t>Sagres_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sagres est une marque de bière portugaise fondée en 1940 dans la ville de Vila Franca de Xira ; elle est considérée par beaucoup comme la Bière de Lisbonne, bien qu'elle tire son nom d'une autre ville, Sagres dans l'extrême sud-ouest du pays. Elle est la seconde bière la plus populaire du pays, brassée par la Sociedade Central de Cervejas e Bebidas, S.A. contrôlée par Heineken.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sagres_(bi%C3%A8re)</t>
+          <t>Sagres_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Classica : (4,8 %)
 Branca : (5 %)
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sagres_(bi%C3%A8re)</t>
+          <t>Sagres_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Médailles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bruxelles : 1958
 Londres : 1969
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sagres_(bi%C3%A8re)</t>
+          <t>Sagres_(bière)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel
  Portail de la bière   Portail du Portugal                    </t>
